--- a/data/math401/results/math50_eval_result.xlsx
+++ b/data/math401/results/math50_eval_result.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0, 0.0, 10, 0.0, 0.0, 0.0, 0.0, 0.1295843520782396, 2.0, 0.9999183637573495, 10, 0.5075955023281672, 0.0, 0.0, 1.7777777777777777, 0.09259999999999996, 0.09899999999999998, 0.0, 0.0, 0.007518796992481203, 0.011730205278592375, 0.0, 0.0, 0.0, 0.9000412923264881, 9.22044238084454, 0.9897139073227031, 0.007200000000000012, 4.5454545454515216e-05, 0.01409847240727546, 8.279933760568172e-06, 0.0, 0.0, 10, 0.9851252776098363, 0.9951406626680375, 2.0, 10, 10, 0.004495359127475493, 2.0531437839900772, 0.5774, 0.04290000000000005, 10, 1.2071, 0.13826690732881275, 0.05136677680985275, 0.6546245769151067]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 10, 0.0, 0.0, 0.0, 0.0, 0.1295843520782396, 2.0, 0.9999183637573495, 10, 0.5075955023281672, 0.0, 0.0, 1.7777777777777777, 0.09259999999999996, 0.09899999999999998, 0.0, 0.0, 0.007518796992481203, 0.011730205278592375, 0.0, 0.0, 0.0, 0.9000412923264881, 9.22044238084454, 0.9897139073227031, 0.007200000000000012, 4.5454545454515216e-05, 0.01409847240727546, 8.279933760568172e-06, 0.0, 0.0, 10, 0.9851252776098363, 0.9951406626680375, 2.0, 10, 10, 0.004495359127475493, 2.0531437839900772, 0.04290000000000005, 10, 1.2071, 0.5774, 0.13826690732881275, 0.05136677680985275, 0.6546245769151067]</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.6595171205469496e-07, 9.79826812653991e-08, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 8.99640143942423, 0.0, 0.0, 9.8072, 4.545454545457073e-05, 0.0, 0.10434766619779166, 0.0006992211002162298, 0.0012015620306398329, 0.0005871382192443306, 0.0038000000000000256, 0.0, 9.541074324963704e-05, 3.418736587880217e-05, 9.999999999998899e-05, 0.46696240952603324, 0.0, 0.6305406791364982, 0.37939526302243487, 0.0, 2.239974080207358, 9.295696092714932e-05, 10, 0.0]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.6595171205469496e-07, 9.79826812653991e-08, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 8.99640143942423, 0.0, 0.0, 9.8072, 4.545454545457073e-05, 9.295696092714932e-05, 2.239974080207358, 0.0, 0.0, 0.10434766619779166, 0.37939526302243487, 0.6305406791364982, 0.0, 0.46696240952603324, 9.999999999998899e-05, 3.418736587880217e-05, 9.541074324963704e-05, 0.0, 0.0, 10, 0.0038000000000000256, 0.0006992211002162298, 0.0012015620306398329, 0.0005871382192443306]</t>
         </is>
       </c>
     </row>

--- a/data/math401/results/math50_eval_result.xlsx
+++ b/data/math401/results/math50_eval_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>missingReplyNum</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>RE_List</t>
         </is>
       </c>
@@ -462,9 +467,12 @@
       <c r="C2" t="n">
         <v>0.06</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.25125628140703515, 9.022857573128268e-08, 10, 10, 0.0, 0.6153846153846154, 0.2222222222222222, 0.007400000000000018, 0.0, 0.625, 0.0, 0.020050125313283207, 0.002932551319648094, 0.0, 0.0, 0.0, 0.000408557836845193, 9.099182108918027, 0.0043098592890551774, 0.00020000000000000573, 0.010699999999999987, 9.140759373864446, 8.999920000639996, 0.0, 0.0, 0.08063730222209968, 0.9243842237319355, 0.9872093866965818, 2.141592653, 10, 10, 0.0015117157974301964, 1.7669115542410074, 0.04290000000000005, 1.0, 1.5, 0.4074, 1.0634202053261295, 10, 1.7146508254472614]</t>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.25125628140703515, 9.022857573128268e-08, 10, 10, 0.0, 0.6153846153846154, 0.2222222222222222, 0.007400000000000018, 0.0, 0.625, 0.0, 0.020050125313283207, 0.002932551319648094, 0.0, 0.0, 0.0, 0.000408557836845193, 9.099182108918027, 0.0043098592890551774, 0.0, 0.010699999999999987, 9.140759373864446, 8.999920000639994, 0.0, 0.0, 0.08063730222209968, 0.9243842237319355, 0.9872093866965816, 2.141592653, 10, 10.0, 0.0015117157974301964, 1.7669115542410077, 0.04290000000000005, 1.0, 1.5, 0.4074, 1.0634202053261295, 10.0, 1.7146508254472612]</t>
         </is>
       </c>
     </row>
@@ -480,9 +488,12 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1652802885849833, 3.6339005007031206e-05, 1.1953887114378692e-07, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0006518862940404747, 0.98997747998939, 0.010531821548960131, 0.019199999999999995, 0.0, 0.07043039072909245, 7.999936000404534e-06, 0.0, 0.0, 0.1725735719998897, 0.9819981658328425, 0.9859483265353375, 2.141592653589793, 1.0, 0.8632, 0.005418304358780586, 10, 2.7071, 1.0, 1.5, 0.4226, 0.5415578112439925, 2.0135025533193147, 0.10865510810250742]</t>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1652802885849833, 3.6339005007031206e-05, 1.1953887114378692e-07, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0006518862940404747, 0.98997747998939, 0.010531821548960131, 0.019199999999999995, 0.0, 0.07043039072909245, 0.0, 0.0, 0.0, 0.1725735719998897, 0.9819981658328425, 0.9859483265353375, 2.141592653589793, 1.0, 0.8632, 0.005418304358780586, 10.0, 2.7071, 1.0, 1.5, 0.4226, 0.5415578112439925, 2.013502553319315, 0.10865510810250742]</t>
         </is>
       </c>
     </row>
@@ -498,9 +509,12 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[0.0, 0.0, 0.0, 0.0, 1.3333333333333333, 0.3401360544217687, 0.0, 0.0, 0.0, 0.12224938875305623, 0.0, 0.0, 3.659517120546949e-11, 6.123917579087443e-08, 0.0, 0.0, 0.0, 0.0, 0.19799999999999995, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.9000399316735939, 8.82358738678542, 0.8993908923779054, 0.002439836221791475, 4.545454545457073e-05, 0.01419192169581035, 5.479948160414717, 0.0, 0.0, 0.8387162019288229, 0.9739592533646291, 0.9584574469192971, 0.0, 1.0, 0.8632, 10, 0.9045892567503101, 1.2071, 1.0, 1.5, 0.4226, 0.43181428121307014, 0.6434696605587263, 0.06992470815776744]</t>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 1.3333333333333333, 0.3401360544217687, 0.0, 0.0, 0.0, 0.12224938875305623, 0.0, 0.0, 3.659517120546949e-11, 6.123917579087443e-08, 0.0, 0.0, 0.0, 0.0, 0.19799999999999995, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.9000399316735939, 8.82358738678542, 0.8993908923779054, 0.002439836221791475, 0.0, 0.01419192169581035, 5.479948160414716, 0.0, 0.0, 0.8387162019288229, 0.9739592533646291, 0.9584574469192972, 0.0, 1.0, 0.8632, 10.0, 0.9045892567503101, 1.2071, 1.0, 1.5, 0.4226, 0.43181428121307014, 0.6434696605587263, 0.06992470815776744]</t>
         </is>
       </c>
     </row>
@@ -516,9 +530,12 @@
       <c r="C5" t="n">
         <v>0.08</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[0.0, 0.0, 0.0, 0.0, 10, 0.0, 0.0, 0.0, 0.0, 0.1295843520782396, 2.0, 0.9999183637573495, 10, 0.5075955023281672, 0.0, 0.0, 1.7777777777777777, 0.09259999999999996, 0.09899999999999998, 0.0, 0.0, 0.007518796992481203, 0.011730205278592375, 0.0, 0.0, 0.0, 0.9000412923264881, 9.22044238084454, 0.9897139073227031, 0.007200000000000012, 4.5454545454515216e-05, 0.01409847240727546, 8.279933760568172e-06, 0.0, 0.0, 10, 0.9851252776098363, 0.9951406626680375, 2.0, 10, 10, 0.004495359127475493, 2.0531437839900772, 0.04290000000000005, 10, 1.2071, 0.5774, 0.13826690732881275, 0.05136677680985275, 0.6546245769151067]</t>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 10, 0.0, 0.0, 0.0, 0.0, 0.1295843520782396, 2.0, 0.9999183637573495, 10.0, 0.5075955023281672, 0.0, 0.0, 1.7777777777777777, 0.09259999999999996, 0.09899999999999998, 0.0, 0.0, 0.007518796992481203, 0.011730205278592375, 0.0, 0.0, 0.0, 0.9000412923264881, 9.22044238084454, 0.9897139073227031, 0.007200000000000012, 0.0, 0.01409847240727546, 0.0, 0.0, 0.0, 10, 0.9851252776098363, 0.9951406626680374, 2.0, 10, 10, 0.004495359127475493, 2.0531437839900772, 0.04290000000000005, 10.0, 1.2071, 0.5774, 0.13826690732881275, 0.05136677680985275, 0.6546245769151067]</t>
         </is>
       </c>
     </row>
@@ -534,7 +551,10 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0042796005706134095, 0.0, 0.02512562814070352, 6.441695647843136e-05, 2.129838963792373, 4.899134063392434, 0.0, 0.0, 0.0, 0.014800000000000035, 0.19799999999999995, 0.0, 0.0, 0.042606516290726815, 0.005865102639296188, 0.0, 0.0, 0.0, 0.00042600646578766515, 0.8986244154747128, 0.8998764716895982, 1.8072, 3.5455, 0.07043039072909245, 0.2800057599539204, 0.0, 0.0, 0.08063730222209968, 0.9247284013362598, 0.9581766315801489, 2.14, 1.0, 0.010199999999999987, 0.004787100025195156, 0.0018128041217441205, 0.15892540399838606, 1.0, 1.5, 0.8425999999999999, 0.34956176724067844, 0.5019525382997897, 0.03612626925467985]</t>
         </is>
@@ -552,9 +572,12 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007132667617689016, 0.0, 0.25125628140703515, 0.00043458792466549554, 2.12982124626951, 0.5343423124865065, 1.2, 0.0, 0.0, 0.003999999999999948, 0.009000000000000008, 0.0, 0.0, 0.012531328320802004, 0.002932551319648094, 0.0, 0.0, 0.0, 0.9899819750124469, 0.9898819798594378, 0.9034317440515184, 0.0007900000000000129, 0.009500000000000008, 0.008459083444365221, 7.999936000404534e-06, 0.0, 0.0, 0.39526160465565274, 10, 0.9951406626680375, 0.0, 1.4669624095260332, 0.01319999999999999, 0.0078105316200555485, 0.027573704799160357, 0.29290000000000005, 1.0, 1.5, 0.5774, 0.34956176724067844, 2.1045358966656655, 0.03612626925467985]</t>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007132667617689016, 0.0, 0.25125628140703515, 0.00043458792466549554, 2.12982124626951, 0.5343423124865065, 1.2, 0.0, 0.0, 0.003999999999999948, 0.009000000000000008, 0.0, 0.0, 0.012531328320802004, 0.002932551319648094, 0.0, 0.0, 0.0, 0.9899819750124469, 0.9898819798594378, 0.9034317440515184, 0.0, 0.009500000000000008, 0.008459083444365221, 0.0, 0.0, 0.0, 0.39526160465565274, 10.0, 0.9951406626680374, 0.0, 1.4669624095260332, 0.01319999999999999, 0.0078105316200555485, 0.027573704799160357, 0.29290000000000005, 1.0, 1.5, 0.5774, 0.34956176724067844, 2.1045358966656655, 0.03612626925467985]</t>
         </is>
       </c>
     </row>
@@ -570,9 +593,12 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.6595171205469496e-06, 1.2247835158174887e-10, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.00026066097272970745, 0.0032388421147387238, 0.0038080339777700443, 0.0002999999999999947, 0.0, 0.0, 0.0, 0.0, 0.0, 0.019637587224535912, 10, 10, 0.0, 4.326574354094551e-05, 0.010599999999999943, 0.0, 0.21714531056196928, 0.20709999999999995, 1.0, 0.0, 0.4226, 0.0005853944094834694, 0.0007509762691498788, 0.00024176279615947536]</t>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.6595171205469496e-06, 1.2247835158174887e-10, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.00026066097272970745, 0.0032388421147387238, 0.0038080339777700443, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.019637587224535912, 10.0, 10.0, 0.0, 0.0, 0.010599999999999943, 0.0, 0.21714531056196928, 0.20709999999999995, 1.0, 0.0, 0.4226, 0.0005853944094834694, 0.0007509762691498788, 0.0]</t>
         </is>
       </c>
     </row>
@@ -588,9 +614,12 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.251256281407035, 4.627106447758086e-11, 3.6595171205469496e-07, 9.859507302330785e-08, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.999000399840064, 0.899708219573986, 0.9006640965484581, 2.8915662650591534e-05, 4.499999999996174e-05, 8.450632811496482e-06, 0.0007919936640506004, 0.0, 0.0, 0.07564516277316556, 0.5096011662976776, 10, 2.14159, 4.326574354094551e-05, 0.021094736842105277, 0.029982363315696564, 0.30434698592631143, 1.2071, 0.0, 0.366, 0.4074, 4.878286745697985e-05, 0.0027035145689397236, 0.0001381501692339421]</t>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.251256281407035, 4.627106447758086e-11, 3.6595171205469496e-07, 9.859507302330785e-08, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.999000399840064, 0.899708219573986, 0.9006640965484581, 0.0, 0.0, 0.0, 0.0007919936640506004, 0.0, 0.0, 0.07564516277316556, 0.5096011662976776, 10.0, 2.14159, 0.0, 0.021094736842105277, 0.029982363315696564, 0.30434698592631143, 1.2071, 0.0, 0.366, 0.4074, 0.0, 0.0027035145689397236, 0.0]</t>
         </is>
       </c>
     </row>
@@ -606,9 +635,12 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.561661984382865e-07, 9.859507302330785e-08, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.00037039413980056074, 0.8997618014327166, 0.8999324799904715, 9.999999999998899e-05, 4.5454499999986187e-05, 0.0, 0.0, 0.0, 0.0, 0.03516562319000471, 10, 10, 0.0, 0.4669191437824923, 0.005199999999999982, 6.298815822624653e-05, 0.39613586489838754, 1.4141, 0.0, 0.0, 0.4074, 0.0009268744816820395, 0.3496395313908081, 0.0015196518615735164]</t>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.561661984382865e-07, 9.859507302330785e-08, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.00037039413980056074, 0.8997618014327166, 0.8999324799904715, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03516562319000471, 10.0, 10.0, 0.0, 0.4669191437824923, 0.005199999999999982, 0.0, 0.39613586489838754, 1.4141, 0.0, 0.0, 0.4074, 0.0009268744816820395, 0.3496395313908081, 0.0015196518615735164]</t>
         </is>
       </c>
     </row>
@@ -624,9 +656,12 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.734494844065125, 3.62292194934148e-06, 1.0222473254670867, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03759398496240601, 0.0, 0.0, 0.0, 0.0, 0.9000390594602, 0.8990034048020872, 0.9003118000998371, 0.0015000000000000013, 0.0, 0.1126948222972764, 0.0, 0.0, 0.0, 0.053608038907429365, 10, 10, 0.0, 0.9338815533085253, 0.08420000000000005, 0.004661123708742663, 1.289857837992558, 1.7071, 0.0, 0.5, 0.4074, 0.04879912841276818, 0.3496395313908081, 0.32852110243835053]</t>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.734494844065125, 3.62292194934148e-06, 1.0222473254670867, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03759398496240601, 0.0, 0.0, 0.0, 0.0, 0.9000390594602, 0.8990034048020872, 0.9003118000998371, 0.0015000000000000013, 0.0, 0.1126948222972764, 0.0, 0.0, 0.0, 0.053608038907429365, 10.0, 10.0, 0.0, 0.9338815533085252, 0.08420000000000005, 0.004661123708742663, 1.289857837992558, 1.7071, 0.0, 0.5, 0.4074, 0.04879912841276818, 0.3496395313908081, 0.32852110243835053]</t>
         </is>
       </c>
     </row>
@@ -642,9 +677,12 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.9000326050810861, 0.0002394825185443977, 0.001019554770536609, 0.0005999999999999894, 0.0, 8.450632811634086e-06, 7.99993520057074e-06, 0.0, 0.0, 0.000983718086622347, 0.9851252776098363, 0.9951406626680375, 0.0, 0.46700443614289033, 0.0040999999999999925, 0.006487780297304232, 0.004865947905734201, 0.0, 0.0, 1.5, 0.0, 10, 0.00045058576148982056, 0.36077916695447954]</t>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.9000326050810861, 0.0002394825185443977, 0.001019554770536609, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.000983718086622347, 0.9851252776098363, 0.9951406626680374, 0.0, 0.46700443614289033, 0.0040999999999999925, 0.006487780297304232, 0.004865947905734201, 0.0, 0.0, 1.5, 0.0, 10.0, 0.00045058576148982056, 0.36077916695447954]</t>
         </is>
       </c>
     </row>
@@ -660,9 +698,12 @@
       <c r="C13" t="n">
         <v>0.02</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.6595171205469496e-07, 9.79826812653991e-08, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 8.99640143942423, 0.0, 0.0, 9.8072, 4.545454545457073e-05, 9.295696092714932e-05, 2.239974080207358, 0.0, 0.0, 0.10434766619779166, 0.37939526302243487, 0.6305406791364982, 0.0, 0.46696240952603324, 9.999999999998899e-05, 3.418736587880217e-05, 9.541074324963704e-05, 0.0, 0.0, 10, 0.0038000000000000256, 0.0006992211002162298, 0.0012015620306398329, 0.0005871382192443306]</t>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.6595171205469496e-07, 9.79826812653991e-08, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 8.99640143942423, 0.0, 0.0, 9.8072, 0.0, 0.0, 2.239974080207358, 0.0, 0.0, 0.10434766619779166, 0.37939526302243487, 0.6305406791364982, 0.0, 0.46696240952603324, 0.0, 0.0, 0.0, 0.0, 0.0, 10, 0.0038000000000000256, 0.0006992211002162298, 0.0012015620306398329, 0.0005871382192443306]</t>
         </is>
       </c>
     </row>
@@ -678,9 +719,12 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.16393442622950818, 0.0, 0.12224938875305623, 0.0, 0.0, 2.1300225196379494, 6.123916354303928, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04887218045112782, 0.02932551319648094, 0.0, 0.0, 0.0, 0.9000390071273964, 0.899117747696819, 0.02907849159776472, 0.007200000000000012, 0.0, 8.450632811634086e-06, 1.0799913600761947e-05, 0.0, 0.0, 0.6810087247520019, 0.5166322850745407, 0.6082789072442476, 0.0, 0.46700443614289033, 10, 0.004787100025195156, 0.008627857074706638, 0.20709999999999995, 0.0, 1.5, 0.4226, 0.1606094606240955, 0.08513667768098528, 0.35939766526213995]</t>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.16393442622950818, 0.0, 0.12224938875305623, 0.0, 0.0, 2.1300225196379494, 6.123916354303928, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04887218045112782, 0.02932551319648094, 0.0, 0.0, 0.0, 0.9000390071273964, 0.899117747696819, 0.02907849159776472, 0.007200000000000012, 0.0, 0.0, 0.0, 0.0, 0.0, 0.6810087247520019, 0.5166322850745407, 0.6082789072442476, 0.0, 0.46700443614289033, 10.0, 0.004787100025195156, 0.008627857074706638, 0.20709999999999995, 0.0, 1.5, 0.4226, 0.1606094606240955, 0.08513667768098528, 0.35939766526213995]</t>
         </is>
       </c>
     </row>
